--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N2">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O2">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P2">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q2">
-        <v>17.88375453643967</v>
+        <v>28.15196790863266</v>
       </c>
       <c r="R2">
-        <v>17.88375453643967</v>
+        <v>253.3677111776939</v>
       </c>
       <c r="S2">
-        <v>0.0005696334910737074</v>
+        <v>0.0005308222315848995</v>
       </c>
       <c r="T2">
-        <v>0.0005696334910737074</v>
+        <v>0.0005398112503985221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N3">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O3">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P3">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q3">
-        <v>16.62092007330221</v>
+        <v>24.33972002251066</v>
       </c>
       <c r="R3">
-        <v>16.62092007330221</v>
+        <v>219.057480202596</v>
       </c>
       <c r="S3">
-        <v>0.0005294096777564623</v>
+        <v>0.0004589400123086562</v>
       </c>
       <c r="T3">
-        <v>0.0005294096777564623</v>
+        <v>0.0004667117674453039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N4">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O4">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P4">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q4">
-        <v>114.4523759050307</v>
+        <v>272.897205975871</v>
       </c>
       <c r="R4">
-        <v>114.4523759050307</v>
+        <v>2456.074853782839</v>
       </c>
       <c r="S4">
-        <v>0.003645537983403916</v>
+        <v>0.00514564041631261</v>
       </c>
       <c r="T4">
-        <v>0.003645537983403916</v>
+        <v>0.005232777419546759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N5">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O5">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P5">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q5">
-        <v>170.4604828589667</v>
+        <v>357.993255654347</v>
       </c>
       <c r="R5">
-        <v>170.4604828589667</v>
+        <v>3221.939300889123</v>
       </c>
       <c r="S5">
-        <v>0.005429508649496029</v>
+        <v>0.006750177446760726</v>
       </c>
       <c r="T5">
-        <v>0.005429508649496029</v>
+        <v>0.006864485907209069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N6">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O6">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P6">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q6">
-        <v>18.18325354179361</v>
+        <v>27.73149151474099</v>
       </c>
       <c r="R6">
-        <v>18.18325354179361</v>
+        <v>166.388949088446</v>
       </c>
       <c r="S6">
-        <v>0.0005791731357632633</v>
+        <v>0.0005228938971090029</v>
       </c>
       <c r="T6">
-        <v>0.0005791731357632633</v>
+        <v>0.0003544991042561762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N7">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O7">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P7">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q7">
-        <v>1417.939044886528</v>
+        <v>1660.619416802564</v>
       </c>
       <c r="R7">
-        <v>1417.939044886528</v>
+        <v>14945.57475122308</v>
       </c>
       <c r="S7">
-        <v>0.04516420568302155</v>
+        <v>0.0313119746193674</v>
       </c>
       <c r="T7">
-        <v>0.04516420568302155</v>
+        <v>0.03184221603014024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N8">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O8">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P8">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q8">
-        <v>1317.813409139158</v>
+        <v>1435.74373912685</v>
       </c>
       <c r="R8">
-        <v>1317.813409139158</v>
+        <v>12921.69365214165</v>
       </c>
       <c r="S8">
-        <v>0.04197500314053894</v>
+        <v>0.02707180890731481</v>
       </c>
       <c r="T8">
-        <v>0.04197500314053894</v>
+        <v>0.02753024675167576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N9">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O9">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P9">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q9">
-        <v>9074.520243783296</v>
+        <v>16097.57443975116</v>
       </c>
       <c r="R9">
-        <v>9074.520243783296</v>
+        <v>144878.1699577605</v>
       </c>
       <c r="S9">
-        <v>0.2890416906445861</v>
+        <v>0.3035294163074291</v>
       </c>
       <c r="T9">
-        <v>0.2890416906445861</v>
+        <v>0.308669426411243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N10">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O10">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P10">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q10">
-        <v>13515.20307234423</v>
+        <v>21117.19341800171</v>
       </c>
       <c r="R10">
-        <v>13515.20307234423</v>
+        <v>190054.7407620154</v>
       </c>
       <c r="S10">
-        <v>0.4304863552551428</v>
+        <v>0.3981773413259784</v>
       </c>
       <c r="T10">
-        <v>0.4304863552551428</v>
+        <v>0.4049201327905537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N11">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O11">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P11">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q11">
-        <v>1441.685251687271</v>
+        <v>1635.816487704683</v>
       </c>
       <c r="R11">
-        <v>1441.685251687271</v>
+        <v>9814.898926228101</v>
       </c>
       <c r="S11">
-        <v>0.04592057005002872</v>
+        <v>0.03084430052225599</v>
       </c>
       <c r="T11">
-        <v>0.04592057005002872</v>
+        <v>0.02091108151577582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N12">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O12">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P12">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q12">
-        <v>58.05163998997137</v>
+        <v>68.43871599555334</v>
       </c>
       <c r="R12">
-        <v>58.05163998997137</v>
+        <v>615.94844395998</v>
       </c>
       <c r="S12">
-        <v>0.001849061296533803</v>
+        <v>0.001290453018043713</v>
       </c>
       <c r="T12">
-        <v>0.001849061296533803</v>
+        <v>0.001312305732129663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N13">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O13">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P13">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q13">
-        <v>53.95241063230991</v>
+        <v>59.17096777881333</v>
       </c>
       <c r="R13">
-        <v>53.95241063230991</v>
+        <v>532.53871000932</v>
       </c>
       <c r="S13">
-        <v>0.001718492610581497</v>
+        <v>0.00111570406954593</v>
       </c>
       <c r="T13">
-        <v>0.001718492610581497</v>
+        <v>0.001134597560200305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N14">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O14">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P14">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q14">
-        <v>371.5186376830268</v>
+        <v>663.4255351660701</v>
       </c>
       <c r="R14">
-        <v>371.5186376830268</v>
+        <v>5970.829816494631</v>
       </c>
       <c r="S14">
-        <v>0.0118336145886546</v>
+        <v>0.01250928617886322</v>
       </c>
       <c r="T14">
-        <v>0.0118336145886546</v>
+        <v>0.01272112020184876</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N15">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O15">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P15">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q15">
-        <v>553.3239993471434</v>
+        <v>870.2979071149902</v>
       </c>
       <c r="R15">
-        <v>553.3239993471434</v>
+        <v>7832.681164034911</v>
       </c>
       <c r="S15">
-        <v>0.01762448040766544</v>
+        <v>0.01640998876873488</v>
       </c>
       <c r="T15">
-        <v>0.01762448040766544</v>
+        <v>0.01668787784156641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N16">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O16">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P16">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q16">
-        <v>59.02383005222787</v>
+        <v>67.41651873397001</v>
       </c>
       <c r="R16">
-        <v>59.02383005222787</v>
+        <v>404.49911240382</v>
       </c>
       <c r="S16">
-        <v>0.001880027502093264</v>
+        <v>0.001271178875885173</v>
       </c>
       <c r="T16">
-        <v>0.001880027502093264</v>
+        <v>0.0008618034659462238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N17">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O17">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P17">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q17">
-        <v>147.5605043041554</v>
+        <v>319.042720959798</v>
       </c>
       <c r="R17">
-        <v>147.5605043041554</v>
+        <v>2871.384488638182</v>
       </c>
       <c r="S17">
-        <v>0.00470009835127757</v>
+        <v>0.006015741764854262</v>
       </c>
       <c r="T17">
-        <v>0.00470009835127757</v>
+        <v>0.006117613187497419</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N18">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O18">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P18">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q18">
-        <v>137.1407409455419</v>
+        <v>275.838993870132</v>
       </c>
       <c r="R18">
-        <v>137.1407409455419</v>
+        <v>2482.550944831188</v>
       </c>
       <c r="S18">
-        <v>0.004368207966289625</v>
+        <v>0.005201109590615066</v>
       </c>
       <c r="T18">
-        <v>0.004368207966289625</v>
+        <v>0.005289185916699147</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N19">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O19">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P19">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q19">
-        <v>944.3570852498026</v>
+        <v>3092.709803429764</v>
       </c>
       <c r="R19">
-        <v>944.3570852498026</v>
+        <v>27834.38823086787</v>
       </c>
       <c r="S19">
-        <v>0.0300796693555004</v>
+        <v>0.05831489737517321</v>
       </c>
       <c r="T19">
-        <v>0.0300796693555004</v>
+        <v>0.05930241010246572</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N20">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O20">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P20">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q20">
-        <v>1406.485129470274</v>
+        <v>4057.092660090592</v>
       </c>
       <c r="R20">
-        <v>1406.485129470274</v>
+        <v>36513.83394081533</v>
       </c>
       <c r="S20">
-        <v>0.04479937547850667</v>
+        <v>0.07649891427006121</v>
       </c>
       <c r="T20">
-        <v>0.04479937547850667</v>
+        <v>0.07779435771360751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N21">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O21">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P21">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q21">
-        <v>150.0316981565744</v>
+        <v>314.277514731873</v>
       </c>
       <c r="R21">
-        <v>150.0316981565744</v>
+        <v>1885.665088391238</v>
       </c>
       <c r="S21">
-        <v>0.004778810837428342</v>
+        <v>0.005925890944759594</v>
       </c>
       <c r="T21">
-        <v>0.004778810837428342</v>
+        <v>0.004017493880597238</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.05838299811536</v>
+        <v>1.138751333333333</v>
       </c>
       <c r="N22">
-        <v>1.05838299811536</v>
+        <v>3.416253999999999</v>
       </c>
       <c r="O22">
-        <v>0.05297308308974456</v>
+        <v>0.03958856402477573</v>
       </c>
       <c r="P22">
-        <v>0.05297308308974456</v>
+        <v>0.04010995698151244</v>
       </c>
       <c r="Q22">
-        <v>21.66533016204843</v>
+        <v>23.312565123556</v>
       </c>
       <c r="R22">
-        <v>21.66533016204843</v>
+        <v>139.875390741336</v>
       </c>
       <c r="S22">
-        <v>0.0006900842678379249</v>
+        <v>0.0004395723909254535</v>
       </c>
       <c r="T22">
-        <v>0.0006900842678379249</v>
+        <v>0.0002980107813465929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.98364687251626</v>
+        <v>0.9845453333333333</v>
       </c>
       <c r="N23">
-        <v>0.98364687251626</v>
+        <v>2.953636</v>
       </c>
       <c r="O23">
-        <v>0.0492324683990169</v>
+        <v>0.03422760950792373</v>
       </c>
       <c r="P23">
-        <v>0.0492324683990169</v>
+        <v>0.03467839712710076</v>
       </c>
       <c r="Q23">
-        <v>20.1354654164695</v>
+        <v>20.155653414904</v>
       </c>
       <c r="R23">
-        <v>20.1354654164695</v>
+        <v>120.933920489424</v>
       </c>
       <c r="S23">
-        <v>0.0006413550038503749</v>
+        <v>0.0003800469281392696</v>
       </c>
       <c r="T23">
-        <v>0.0006413550038503749</v>
+        <v>0.0002576551310802491</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.77343499123581</v>
+        <v>11.038733</v>
       </c>
       <c r="N24">
-        <v>6.77343499123581</v>
+        <v>33.116199</v>
       </c>
       <c r="O24">
-        <v>0.3390169109222678</v>
+        <v>0.3837603305751604</v>
       </c>
       <c r="P24">
-        <v>0.3390169109222678</v>
+        <v>0.3888145662708937</v>
       </c>
       <c r="Q24">
-        <v>138.6536874435887</v>
+        <v>225.985405602786</v>
       </c>
       <c r="R24">
-        <v>138.6536874435887</v>
+        <v>1355.912433616716</v>
       </c>
       <c r="S24">
-        <v>0.004416398350122844</v>
+        <v>0.004261090297382195</v>
       </c>
       <c r="T24">
-        <v>0.004416398350122844</v>
+        <v>0.002888832135789452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.088064927354</v>
+        <v>14.480881</v>
       </c>
       <c r="N25">
-        <v>10.088064927354</v>
+        <v>43.442643</v>
       </c>
       <c r="O25">
-        <v>0.5049173149635329</v>
+        <v>0.5034262246925947</v>
       </c>
       <c r="P25">
-        <v>0.5049173149635329</v>
+        <v>0.510056495182502</v>
       </c>
       <c r="Q25">
-        <v>206.5048831439025</v>
+        <v>296.4532040290021</v>
       </c>
       <c r="R25">
-        <v>206.5048831439025</v>
+        <v>1778.719224174012</v>
       </c>
       <c r="S25">
-        <v>0.006577595172721911</v>
+        <v>0.005589802881059464</v>
       </c>
       <c r="T25">
-        <v>0.006577595172721911</v>
+        <v>0.003789640929565278</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.07610772446257</v>
+        <v>1.121743</v>
       </c>
       <c r="N26">
-        <v>1.07610772446257</v>
+        <v>2.243486</v>
       </c>
       <c r="O26">
-        <v>0.05386022262543786</v>
+        <v>0.03899727119954546</v>
       </c>
       <c r="P26">
-        <v>0.05386022262543786</v>
+        <v>0.02634058443799127</v>
       </c>
       <c r="Q26">
-        <v>22.02815916537527</v>
+        <v>22.964369809206</v>
       </c>
       <c r="R26">
-        <v>22.02815916537527</v>
+        <v>91.85747923682401</v>
       </c>
       <c r="S26">
-        <v>0.0007016411001242735</v>
+        <v>0.0004330069595356998</v>
       </c>
       <c r="T26">
-        <v>0.0007016411001242735</v>
+        <v>0.0001957064714158088</v>
       </c>
     </row>
   </sheetData>
